--- a/mageproductcsv/resources/wmf-coffeemachine.xlsx
+++ b/mageproductcsv/resources/wmf-coffeemachine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="640" windowWidth="25360" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>category</t>
   </si>
@@ -221,9 +221,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>wmf-Lone-kaffeemachine-329863.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/2436535735/TB2_gamkXXXXXa9XXXXXXXXXXXX-2436535735.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/2436535735/TB20gOykXXXXXacXXXXXXXXXXXX-2436535735.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/2436535735/TB2do5mkXXXXXb6XXXXXXXXXXXX-2436535735.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/2436535735/TB2EkyskXXXXXaRXXXXXXXXXXXX-2436535735.jpg' /&gt;</t>
   </si>
   <si>
@@ -256,17 +253,62 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>wmf-kaffeemuehleskyline.jpg</t>
+    <t>/wmf/electrician/wmf-Lone-kaffeemachine-329863.jpg</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-kaffeemuehleskyline.jpg</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>url-key</t>
+  </si>
+  <si>
+    <t>&lt;img /&gt;</t>
+  </si>
+  <si>
+    <t>wmf_glas_lineo_edition_kaffeemachine_329800</t>
+  </si>
+  <si>
+    <t>wmf-stelio-kaffeemachine-329890</t>
+  </si>
+  <si>
+    <t>wmf-stelio-kaffeemachine-329889</t>
+  </si>
+  <si>
+    <t>wmf-4er-kaffeemachine-329896</t>
+  </si>
+  <si>
+    <t>wmf-Lone-kaffeemachine-329863</t>
+  </si>
+  <si>
+    <t>wmf-kaffeemuehleskyline</t>
+  </si>
+  <si>
+    <t>zh-wmf_glas_lineo_edition_kaffeemachine_329800</t>
+  </si>
+  <si>
+    <t>zh-wmf-stelio-kaffeemachine-329890</t>
+  </si>
+  <si>
+    <t>zh-wmf-stelio-kaffeemachine-329889</t>
+  </si>
+  <si>
+    <t>zh-wmf-4er-kaffeemachine-329896</t>
+  </si>
+  <si>
+    <t>zh-wmf-Lone-kaffeemachine-329863</t>
+  </si>
+  <si>
+    <t>zh-wmf-kaffeemuehleskyline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +321,22 @@
       <color theme="1"/>
       <name val="Libian SC Regular"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -304,25 +362,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -655,10 +714,13 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="9" max="9" width="62.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -694,8 +756,12 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
@@ -704,7 +770,7 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -731,8 +797,12 @@
       <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="18">
       <c r="A3" s="1" t="s">
@@ -741,7 +811,7 @@
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -768,8 +838,12 @@
       <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
@@ -778,7 +852,7 @@
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -805,8 +879,12 @@
       <c r="K4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
@@ -815,7 +893,7 @@
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -842,8 +920,12 @@
       <c r="K5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
@@ -852,7 +934,7 @@
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>178.88</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -871,54 +953,65 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3">
+        <v>139.99</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2">
-        <v>139.99</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
